--- a/report/Custom Report - Personil Pandu.xlsx
+++ b/report/Custom Report - Personil Pandu.xlsx
@@ -72,67 +72,67 @@
     <t>${table:pk.nomor_sk}</t>
   </si>
   <si>
+    <t>${table:pk.CABANG}</t>
+  </si>
+  <si>
+    <t>${table:pk.STATUS_KEPEGAWAIAN}</t>
+  </si>
+  <si>
+    <t>${table:pk.PANDU_BANDAR_LAUT}</t>
+  </si>
+  <si>
+    <t>${table:pk.TANGGAL_LAHIR}</t>
+  </si>
+  <si>
+    <t>${table:pk.TANGGAL_MULAI}</t>
+  </si>
+  <si>
+    <t>${table:pk.SKPP_TANGGAL_MULAI}</t>
+  </si>
+  <si>
+    <t>${table:pk.skpp_SKPP_TANGGAL_SELESAI}</t>
+  </si>
+  <si>
+    <t>KATEGORI</t>
+  </si>
+  <si>
+    <t>JENIS SERTIFIKAT</t>
+  </si>
+  <si>
+    <t>KATEGORI SERTIFIKAT</t>
+  </si>
+  <si>
+    <t>NO SERTIFIKAT</t>
+  </si>
+  <si>
+    <t>LEMBAGA</t>
+  </si>
+  <si>
+    <t>TANGGAL TERBIT</t>
+  </si>
+  <si>
+    <t>TANGGAL KADALUARSA</t>
+  </si>
+  <si>
+    <t>${table:pk.JENISCERT}</t>
+  </si>
+  <si>
+    <t>${table:pk.TIPECERT}</t>
+  </si>
+  <si>
+    <t>${table:pk.NO_SERTIFIKAT}</t>
+  </si>
+  <si>
+    <t>${table:pk.LEMBAGA}</t>
+  </si>
+  <si>
+    <t>${table:pk.TANGGALTERBIT}</t>
+  </si>
+  <si>
+    <t>${table:pk.EXPIRED}</t>
+  </si>
+  <si>
     <t>${table:pk.NO}</t>
-  </si>
-  <si>
-    <t>${table:pk.CABANG}</t>
-  </si>
-  <si>
-    <t>${table:pk.STATUS_KEPEGAWAIAN}</t>
-  </si>
-  <si>
-    <t>${table:pk.PANDU_BANDAR_LAUT}</t>
-  </si>
-  <si>
-    <t>${table:pk.TANGGAL_LAHIR}</t>
-  </si>
-  <si>
-    <t>${table:pk.TANGGAL_MULAI}</t>
-  </si>
-  <si>
-    <t>${table:pk.SKPP_TANGGAL_MULAI}</t>
-  </si>
-  <si>
-    <t>${table:pk.skpp_SKPP_TANGGAL_SELESAI}</t>
-  </si>
-  <si>
-    <t>KATEGORI</t>
-  </si>
-  <si>
-    <t>JENIS SERTIFIKAT</t>
-  </si>
-  <si>
-    <t>KATEGORI SERTIFIKAT</t>
-  </si>
-  <si>
-    <t>NO SERTIFIKAT</t>
-  </si>
-  <si>
-    <t>LEMBAGA</t>
-  </si>
-  <si>
-    <t>TANGGAL TERBIT</t>
-  </si>
-  <si>
-    <t>TANGGAL KADALUARSA</t>
-  </si>
-  <si>
-    <t>${table:pk.JENISCERT}</t>
-  </si>
-  <si>
-    <t>${table:pk.TIPECERT}</t>
-  </si>
-  <si>
-    <t>${table:pk.NO_SERTIFIKAT}</t>
-  </si>
-  <si>
-    <t>${table:pk.LEMBAGA}</t>
-  </si>
-  <si>
-    <t>${table:pk.TANGGALTERBIT}</t>
-  </si>
-  <si>
-    <t>${table:pk.EXPIRED}</t>
   </si>
 </sst>
 </file>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -558,22 +558,22 @@
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
@@ -586,10 +586,10 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -601,46 +601,46 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>

--- a/report/Custom Report - Personil Pandu.xlsx
+++ b/report/Custom Report - Personil Pandu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>NO</t>
   </si>
@@ -133,13 +133,16 @@
   </si>
   <si>
     <t>${table:pk.NO}</t>
+  </si>
+  <si>
+    <t>PERSONIL PANDU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +158,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,11 +198,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -204,6 +224,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -486,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,64 +546,28 @@
     <col min="30" max="30" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>30</v>
-      </c>
+    <row r="1" spans="1:30" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -584,64 +577,26 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>36</v>
-      </c>
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -651,7 +606,129 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:S2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
